--- a/2- AsistenciaLab/registros_laboratorio.xlsx
+++ b/2- AsistenciaLab/registros_laboratorio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,27 +463,3834 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19637856-1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mena</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>21566266-7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Felipe</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pizarro</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21978838-k</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mathias</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Iribarren</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>17579474-3</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Felipe</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Flores</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ingeniería Civil en Informática</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>TALLER EN EMPRESA I</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20299327-3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Benjamin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sanchez</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>22244349-0</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tomas </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valenzuela </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21575268-2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ignacio</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Berríos</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>21275925-2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catalina </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muñoz </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>21295046-7</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Damaris</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fuenzalida</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>21154572-0</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Montero</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20165424-6</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Matías</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Besa Concha</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>21097146-7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>josefa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>soazo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20289325-2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20835178-8</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>alan</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Caceres</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20970645-8</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>nicolas</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>castro</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>21070754-9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Van John</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Azocar</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20753788-8</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20537333-0</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bastian</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Zambrano</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20908345-0</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Enzo</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Montecinos</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20444249-5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Vicente</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Lara</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21256082-0</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Javiera</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Orellana</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20238461-7</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Manuel</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>farias</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20076193-6</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>axel</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>valenzuela</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>21218645-7</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Gonzalo</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Arredondo</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20592324-1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>benjamin</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>moralesd</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20777343-3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>aliette</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>moenne-loccoz</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20676938-6</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Jose </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Canales de La Cerda</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>19673397-3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Matias</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ruiz</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>21022251-0</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maria ignacia </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">severino </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20968871-9</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Gabriela</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Escobar</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>21204301-k</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>joel</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>garcia</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20781135-1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Javiera</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Esdtrada</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20848978-k</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ignacio</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Baeza</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>22212551-0</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Tomás</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Retamales</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>22270693-9</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Harald</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ulriksen</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>23437455-9</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>anhali</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>chepe</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>17341813-2</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Cea</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>26850535-0</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dolphore</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>saint fort</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20044281-4</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>camila</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">campos cortes </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20465315-1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>matias</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>quinones</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>19069582-4</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Romina </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Hurtado Muñoz</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>15839012-4</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Montes</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No pertenece a ninguna de estas carreras</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20995152-5</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matías </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Del Rio </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Minas</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20813967-3</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Patricio</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Catalan</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20538048-5</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>oscar</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>farias</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>21293813-0</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Matias</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Greig</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>21013401-8</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Mathias</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Tello</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>21157749-5</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Vicente</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marin </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>21129491-4</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Francisco</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Vasquez</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20527244-5</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Penela</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20955954-4</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Jepherson</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Prado</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20812049-2</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>victor</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>loaiza</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20561729-9</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Isai</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Urbina</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20807260-9</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Tomas</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Jorquera</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20589952-9</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Nicolas</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Veas</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20839362-6</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Lucas</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20659053-k</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Felipe</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Novoa</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20996567-4</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Sebastian</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Berrios</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>21168883-1</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Sebastian</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Beas</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>21164491-5</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Constanza</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Concha</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20722593-2</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>hector</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>irrazabal</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>19740603-8</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>luis</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ayala</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20792402-4</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Noemí</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Pino</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>21137790-9</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Lenny</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Roa</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>21081716-6</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Felipe</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Correa</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>21023471-3</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>jairo</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>gonzalez</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>25446295-0</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Henry Geovany</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vines </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>21273609-0</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Baltazar</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Escalante</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>22023593-9</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>eydan</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>seguel</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>21865111-9</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">samantha </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>delgado</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>21953383-7</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Jose </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vargas</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>21173712-3</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Bruno</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Catalan</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Minas</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20995152-5</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Olivares</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Minas</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>17510099-7</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Paillalef</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Minas</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>23930244-0</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Pier</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Paredes</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Minas</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20792216-1</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Ignacio</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Sanchez</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Minas</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>19134692-0</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Nicolás Enrique</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Araya Sapag</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>21949056-9</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Joaquin</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Pizarro</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>22736557-9</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ShuoXuan</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Lai</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>26618355-0</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos E. </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Colmenares Paz</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>25111495-1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Joel</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Cortez</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>HORMIGÓN ARMADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>27887682-9</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Antuanet</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>López</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>HORMIGÓN ARMADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>27525007-4</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obaire </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Lozada</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>HORMIGÓN ARMADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>21339553-k</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">brandon </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>rojas</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>HORMIGÓN ARMADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20911670-7</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>rozas</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>HORMIGÓN ARMADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>21119769-2</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Lastra</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>HORMIGÓN ARMADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>24012086-0</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Angel</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>quelca</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>HORMIGÓN ARMADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>21361664-1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ramirez</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>HORMIGÓN ARMADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>20200032-0</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Viveros</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>HORMIGÓN ARMADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>21156226-9</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>mauricio</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vergara</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>HORMIGÓN ARMADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>21508067-6</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Benjamín</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Amaya</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>HORMIGÓN ARMADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>20993843-K</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Josefinaa</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Laferte</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>No pertenece a ninguna de estas carreras</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>22202407-2</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>daniel</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>cortes</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Minas</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>22166055-2</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Benjamín</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Tapia</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Minas</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>22239025-7</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Lemus</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Minas</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>21613870-8</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cristobal</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>barriga</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>20352288-6</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>felipe</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Mardones</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>HORMIGÓN ARMADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>21862624-6</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Montserrat </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Silva</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>21969886-0</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Gustavo</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Urra</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>20627445-k</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ariel</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>aguiolar</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>HORMIGÓN ARMADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>21653550-2</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Renato</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Soto</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>21051337-k</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Olivares</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Minas</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>TALLER EN EMPRESA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>21458807-2</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Alonso</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Labbe</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>21476495-4</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Palominos</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>26984779-4</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Ricardo</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Chirinos</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>25986871-8</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Sebastian</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Valbuena</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>25773948-1</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>alexander</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>bracho</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>26006821-0</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>italo</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>duerto</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>20676681-6</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>tomas</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>jorquera</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>21511524-0</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Nicolas</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Campos</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>21388469-7</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Francisco</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Noman</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>21604898-9</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Benjamín</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Maldonado</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>21443570-5</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Renata</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Antequiera</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>21059103-6</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>luciano</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>alegria</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>21388203-1</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Herrera</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>21330609-K</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Pilquil</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>21503755-K</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>VALENTINA</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>21082243-7</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>RENATO</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>NUÑEZ</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>20631580-6</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Franco</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Yañez</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>20534567-1</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>yessenia</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>moreno</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>21131605-5</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Cardenas</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>21514969-2</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Ignacio</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Neira</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>20961886-9</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Jara</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>15163524-5</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Ignacio</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Santamaria</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>21068499-9</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Rodolfo</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Obreque</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>21123365-6</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Pablo</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Morales</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>21598156-8</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Ignacio</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>20881871-6</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Pablo</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Riveros</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>21500608-5</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Benjamín</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Iturra</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>25224132-9</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Oriana</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Sandoval</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>21549325-3</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Marcelo</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Muñoz</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>21086556-K</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Nicolas</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>20908870-3</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Moises</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Vasquez Chavez</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>21991471-7</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>jose</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>mellado</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>22378860-2</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Fabrizio</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>22119736-4</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>javiera</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>galvez</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>22214195-8</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>franciska</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>zuñiga</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>22177648-8</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>aylin</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>mella</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil Industrial</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>20447732-9</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>gonzalo</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>sanchez</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>26909175-4</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Sebastian</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Barazarte</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>17617561-3</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>jose</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ortega </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>22021435-4</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Francisco</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Diaz</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Obras Civiles</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
         </is>
       </c>
     </row>

--- a/2- AsistenciaLab/registros_laboratorio.xlsx
+++ b/2- AsistenciaLab/registros_laboratorio.xlsx
@@ -544,17 +544,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17579474-3</t>
+          <t>20299327-3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Felipe</t>
+          <t>Benjamin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Flores</t>
+          <t>Sanchez</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,17 +571,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20299327-3</t>
+          <t>22244349-0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t xml:space="preserve">Tomas </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sanchez</t>
+          <t xml:space="preserve">Valenzuela </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,17 +598,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22244349-0</t>
+          <t>21575268-2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tomas </t>
+          <t>Ignacio</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Valenzuela </t>
+          <t>Berríos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -625,44 +625,44 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21575268-2</t>
+          <t>21275925-2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ignacio</t>
+          <t xml:space="preserve">Catalina </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Berríos</t>
+          <t xml:space="preserve">Muñoz </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Informática</t>
+          <t>Ingeniería Civil Industrial</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+          <t>TALLER EN EMPRESA I</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21275925-2</t>
+          <t>21295046-7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Catalina </t>
+          <t>Damaris</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muñoz </t>
+          <t>Fuenzalida</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -679,17 +679,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21295046-7</t>
+          <t>21154572-0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Damaris</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fuenzalida</t>
+          <t>Montero</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -706,17 +706,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21154572-0</t>
+          <t>20165424-6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Matías</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Montero</t>
+          <t>Besa Concha</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,17 +733,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20165424-6</t>
+          <t>21097146-7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Matías</t>
+          <t>josefa</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Besa Concha</t>
+          <t>soazo</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -760,17 +760,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21097146-7</t>
+          <t>20289325-2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>josefa</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>soazo</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -787,17 +787,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20289325-2</t>
+          <t>20835178-8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>alan</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Caceres</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -814,17 +814,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20835178-8</t>
+          <t>20970645-8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>alan</t>
+          <t>nicolas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Caceres</t>
+          <t>castro</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -841,17 +841,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20970645-8</t>
+          <t>21070754-9</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>nicolas</t>
+          <t>Van John</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>castro</t>
+          <t>Azocar</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -868,17 +868,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21070754-9</t>
+          <t>20753788-8</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Van John</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Azocar</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -895,17 +895,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20753788-8</t>
+          <t>20537333-0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Bastian</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Zambrano</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -922,17 +922,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20537333-0</t>
+          <t>20908345-0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bastian</t>
+          <t>Enzo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Zambrano</t>
+          <t>Montecinos</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -949,17 +949,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20908345-0</t>
+          <t>20444249-5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Enzo</t>
+          <t>Vicente</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Montecinos</t>
+          <t>Lara</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -976,17 +976,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20444249-5</t>
+          <t>21256082-0</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Vicente</t>
+          <t>Javiera</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lara</t>
+          <t>Orellana</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1003,17 +1003,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21256082-0</t>
+          <t>20238461-7</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Javiera</t>
+          <t>Manuel</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Orellana</t>
+          <t>farias</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1030,17 +1030,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20238461-7</t>
+          <t>20076193-6</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Manuel</t>
+          <t>axel</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>farias</t>
+          <t>valenzuela</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1057,17 +1057,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20076193-6</t>
+          <t>21218645-7</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>axel</t>
+          <t>Gonzalo</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>valenzuela</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1084,17 +1084,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>21218645-7</t>
+          <t>20592324-1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Gonzalo</t>
+          <t>benjamin</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>moralesd</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1111,17 +1111,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20592324-1</t>
+          <t>20777343-3</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>benjamin</t>
+          <t>aliette</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>moralesd</t>
+          <t>moenne-loccoz</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1138,17 +1138,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20777343-3</t>
+          <t>20676938-6</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>aliette</t>
+          <t xml:space="preserve">Maria Jose </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>moenne-loccoz</t>
+          <t>Canales de La Cerda</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1165,17 +1165,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20676938-6</t>
+          <t>19673397-3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maria Jose </t>
+          <t>Matias</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Canales de La Cerda</t>
+          <t>Ruiz</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1192,17 +1192,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>19673397-3</t>
+          <t>21022251-0</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Matias</t>
+          <t xml:space="preserve">maria ignacia </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ruiz</t>
+          <t xml:space="preserve">severino </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1219,17 +1219,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>21022251-0</t>
+          <t>20968871-9</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">maria ignacia </t>
+          <t>Gabriela</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">severino </t>
+          <t>Escobar</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1246,22 +1246,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20968871-9</t>
+          <t>21204301-k</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gabriela</t>
+          <t>joel</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Escobar</t>
+          <t>garcia</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ingeniería Civil Industrial</t>
+          <t>Ingeniería Civil en Obras Civiles</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1273,22 +1273,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>21204301-k</t>
+          <t>20781135-1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>joel</t>
+          <t>Javiera</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>garcia</t>
+          <t>Esdtrada</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Obras Civiles</t>
+          <t>Ingeniería Civil Industrial</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1300,17 +1300,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20781135-1</t>
+          <t>20848978-k</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Javiera</t>
+          <t>Ignacio</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Esdtrada</t>
+          <t>Baeza</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1327,44 +1327,44 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20848978-k</t>
+          <t>22212551-0</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ignacio</t>
+          <t>Tomás</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Baeza</t>
+          <t>Retamales</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ingeniería Civil Industrial</t>
+          <t>Ingeniería Civil en Informática</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TALLER EN EMPRESA I</t>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>22212551-0</t>
+          <t>22270693-9</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tomás</t>
+          <t>Harald</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Retamales</t>
+          <t>Ulriksen</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1381,44 +1381,44 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>22270693-9</t>
+          <t>23437455-9</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Harald</t>
+          <t>anhali</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ulriksen</t>
+          <t>chepe</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Informática</t>
+          <t>Ingeniería Civil en Obras Civiles</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+          <t>TALLER EN EMPRESA I</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>23437455-9</t>
+          <t>17341813-2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>anhali</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>chepe</t>
+          <t>Cea</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1435,17 +1435,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>17341813-2</t>
+          <t>26850535-0</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>dolphore</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cea</t>
+          <t>saint fort</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1462,17 +1462,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>26850535-0</t>
+          <t>20044281-4</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>dolphore</t>
+          <t>camila</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>saint fort</t>
+          <t xml:space="preserve">campos cortes </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1489,17 +1489,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20044281-4</t>
+          <t>20465315-1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>camila</t>
+          <t>matias</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">campos cortes </t>
+          <t>quinones</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1516,17 +1516,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20465315-1</t>
+          <t>19069582-4</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>matias</t>
+          <t xml:space="preserve">Romina </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>quinones</t>
+          <t>Hurtado Muñoz</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1543,76 +1543,76 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>19069582-4</t>
+          <t>15839012-4</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romina </t>
+          <t>William</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Hurtado Muñoz</t>
+          <t>Montes</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Obras Civiles</t>
+          <t>No pertenece a ninguna de estas carreras</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TALLER EN EMPRESA I</t>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>15839012-4</t>
+          <t>20995152-5</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>William</t>
+          <t xml:space="preserve">Matías </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Montes</t>
+          <t xml:space="preserve">Del Rio </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>No pertenece a ninguna de estas carreras</t>
+          <t>Ingeniería Civil en Minas</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+          <t>TALLER EN EMPRESA I</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20995152-5</t>
+          <t>20813967-3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Matías </t>
+          <t>Patricio</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Del Rio </t>
+          <t>Catalan</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Minas</t>
+          <t>Ingeniería Civil en Informática</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1624,17 +1624,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20813967-3</t>
+          <t>20538048-5</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Patricio</t>
+          <t>oscar</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Catalan</t>
+          <t>farias</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1651,17 +1651,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20538048-5</t>
+          <t>21293813-0</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>oscar</t>
+          <t>Matias</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>farias</t>
+          <t>Greig</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1678,17 +1678,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>21293813-0</t>
+          <t>21013401-8</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Matias</t>
+          <t>Mathias</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Greig</t>
+          <t>Tello</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1705,17 +1705,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>21013401-8</t>
+          <t>21157749-5</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mathias</t>
+          <t>Vicente</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tello</t>
+          <t xml:space="preserve">Marin </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1732,17 +1732,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>21157749-5</t>
+          <t>21129491-4</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Vicente</t>
+          <t>Francisco</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marin </t>
+          <t>Vasquez</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1759,17 +1759,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>21129491-4</t>
+          <t>20527244-5</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Francisco</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Vasquez</t>
+          <t>Penela</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1786,17 +1786,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20527244-5</t>
+          <t>20955954-4</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Jepherson</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Penela</t>
+          <t>Prado</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1813,17 +1813,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20955954-4</t>
+          <t>20812049-2</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Jepherson</t>
+          <t>victor</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Prado</t>
+          <t>loaiza</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1840,17 +1840,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20812049-2</t>
+          <t>20561729-9</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>victor</t>
+          <t>Isai</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>loaiza</t>
+          <t>Urbina</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1867,17 +1867,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20561729-9</t>
+          <t>20807260-9</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Isai</t>
+          <t>Tomas</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Urbina</t>
+          <t>Jorquera</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1894,17 +1894,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20807260-9</t>
+          <t>20589952-9</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tomas</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Jorquera</t>
+          <t>Veas</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1921,17 +1921,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20589952-9</t>
+          <t>20839362-6</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Nicolas</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Veas</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1948,17 +1948,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20839362-6</t>
+          <t>20659053-k</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Felipe</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Novoa</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1975,17 +1975,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20659053-k</t>
+          <t>20996567-4</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Felipe</t>
+          <t>Sebastian</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Novoa</t>
+          <t>Berrios</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2002,7 +2002,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20996567-4</t>
+          <t>21168883-1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Berrios</t>
+          <t>Beas</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2029,17 +2029,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>21168883-1</t>
+          <t>21164491-5</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sebastian</t>
+          <t>Constanza</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Beas</t>
+          <t>Concha</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2056,17 +2056,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>21164491-5</t>
+          <t>20722593-2</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Constanza</t>
+          <t>hector</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Concha</t>
+          <t>irrazabal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2083,17 +2083,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20722593-2</t>
+          <t>19740603-8</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>hector</t>
+          <t>luis</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>irrazabal</t>
+          <t>ayala</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2110,17 +2110,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>19740603-8</t>
+          <t>20792402-4</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>luis</t>
+          <t>Noemí</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ayala</t>
+          <t>Pino</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2137,17 +2137,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20792402-4</t>
+          <t>21137790-9</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Noemí</t>
+          <t>Lenny</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Pino</t>
+          <t>Roa</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2164,17 +2164,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>21137790-9</t>
+          <t>21081716-6</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lenny</t>
+          <t>Felipe</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Roa</t>
+          <t>Correa</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2191,17 +2191,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>21081716-6</t>
+          <t>21023471-3</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Felipe</t>
+          <t>jairo</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Correa</t>
+          <t>gonzalez</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2218,17 +2218,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>21023471-3</t>
+          <t>25446295-0</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jairo</t>
+          <t>Henry Geovany</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>gonzalez</t>
+          <t xml:space="preserve">Vines </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2245,17 +2245,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>25446295-0</t>
+          <t>21273609-0</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Henry Geovany</t>
+          <t>Baltazar</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vines </t>
+          <t>Escalante</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2272,17 +2272,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21273609-0</t>
+          <t>22023593-9</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Baltazar</t>
+          <t>eydan</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Escalante</t>
+          <t>seguel</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2292,29 +2292,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TALLER EN EMPRESA I</t>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>22023593-9</t>
+          <t>21865111-9</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>eydan</t>
+          <t xml:space="preserve">samantha </t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>seguel</t>
+          <t>delgado</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Informática</t>
+          <t>Ingeniería Civil Industrial</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2326,17 +2326,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>21865111-9</t>
+          <t>21953383-7</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">samantha </t>
+          <t xml:space="preserve">Maria Jose </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>delgado</t>
+          <t>vargas</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2353,44 +2353,44 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>21953383-7</t>
+          <t>21173712-3</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maria Jose </t>
+          <t>Bruno</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>vargas</t>
+          <t>Catalan</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Ingeniería Civil Industrial</t>
+          <t>Ingeniería Civil en Minas</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+          <t>TALLER EN EMPRESA I</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>21173712-3</t>
+          <t>20995152-5</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Bruno</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Catalan</t>
+          <t>Olivares</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2407,17 +2407,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20995152-5</t>
+          <t>17510099-7</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Olivares</t>
+          <t>Paillalef</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2434,17 +2434,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>17510099-7</t>
+          <t>23930244-0</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Pier</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Paillalef</t>
+          <t>Paredes</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2461,17 +2461,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>23930244-0</t>
+          <t>20792216-1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pier</t>
+          <t>Ignacio</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Paredes</t>
+          <t>Sanchez</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2488,22 +2488,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20792216-1</t>
+          <t>19134692-0</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ignacio</t>
+          <t>Nicolás Enrique</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sanchez</t>
+          <t>Araya Sapag</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Minas</t>
+          <t>Ingeniería Civil en Informática</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2515,17 +2515,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>19134692-0</t>
+          <t>21949056-9</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Nicolás Enrique</t>
+          <t>Joaquin</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Araya Sapag</t>
+          <t>Pizarro</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2535,24 +2535,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TALLER EN EMPRESA I</t>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>21949056-9</t>
+          <t>22736557-9</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Joaquin</t>
+          <t>ShuoXuan</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Pizarro</t>
+          <t>Lai</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2562,24 +2562,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+          <t>TALLER EN EMPRESA I</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>22736557-9</t>
+          <t>26618355-0</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ShuoXuan</t>
+          <t xml:space="preserve">Carlos E. </t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lai</t>
+          <t>Colmenares Paz</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TALLER EN EMPRESA I</t>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>26618355-0</t>
+          <t>25111495-1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos E. </t>
+          <t>Joel</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Colmenares Paz</t>
+          <t>Cortez</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Informática</t>
+          <t>Ingeniería Civil en Obras Civiles</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+          <t>HORMIGÓN ARMADO</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>25111495-1</t>
+          <t>27887682-9</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Joel</t>
+          <t>Antuanet</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cortez</t>
+          <t>López</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2650,17 +2650,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>27887682-9</t>
+          <t>27525007-4</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Antuanet</t>
+          <t xml:space="preserve">Obaire </t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>López</t>
+          <t>Lozada</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2677,17 +2677,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>27525007-4</t>
+          <t>21339553-k</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Obaire </t>
+          <t xml:space="preserve">brandon </t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Lozada</t>
+          <t>rojas</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2704,17 +2704,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>21339553-k</t>
+          <t>20911670-7</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve">brandon </t>
+          <t>marcos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>rojas</t>
+          <t>rozas</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2731,17 +2731,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20911670-7</t>
+          <t>21119769-2</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>marcos</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>rozas</t>
+          <t>Lastra</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2758,17 +2758,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>21119769-2</t>
+          <t>24012086-0</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Angel</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Lastra</t>
+          <t>quelca</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2785,17 +2785,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>24012086-0</t>
+          <t>21361664-1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Angel</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>quelca</t>
+          <t>Ramirez</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2812,17 +2812,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>21361664-1</t>
+          <t>20200032-0</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ramirez</t>
+          <t>Viveros</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2839,17 +2839,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20200032-0</t>
+          <t>21156226-9</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>mauricio</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Viveros</t>
+          <t>vergara</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2866,17 +2866,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>21156226-9</t>
+          <t>21508067-6</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>mauricio</t>
+          <t>Benjamín</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>vergara</t>
+          <t>Amaya</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2893,49 +2893,49 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>21508067-6</t>
+          <t>20993843-K</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Benjamín</t>
+          <t>Josefinaa</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Amaya</t>
+          <t>Laferte</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Obras Civiles</t>
+          <t>No pertenece a ninguna de estas carreras</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>HORMIGÓN ARMADO</t>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20993843-K</t>
+          <t>22202407-2</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Josefinaa</t>
+          <t>daniel</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Laferte</t>
+          <t>cortes</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>No pertenece a ninguna de estas carreras</t>
+          <t>Ingeniería Civil en Minas</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2947,17 +2947,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>22202407-2</t>
+          <t>22166055-2</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>daniel</t>
+          <t>Benjamín</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>cortes</t>
+          <t>Tapia</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2974,17 +2974,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>22166055-2</t>
+          <t>22239025-7</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Benjamín</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Tapia</t>
+          <t>Lemus</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3001,22 +3001,22 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>22239025-7</t>
+          <t>21613870-8</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>cristobal</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Lemus</t>
+          <t>barriga</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Minas</t>
+          <t>Ingeniería Civil en Informática</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3028,98 +3028,98 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>21613870-8</t>
+          <t>20352288-6</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>cristobal</t>
+          <t>felipe</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>barriga</t>
+          <t>Mardones</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Informática</t>
+          <t>Ingeniería Civil en Obras Civiles</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+          <t>HORMIGÓN ARMADO</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20352288-6</t>
+          <t>21862624-6</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>felipe</t>
+          <t xml:space="preserve">Montserrat </t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Mardones</t>
+          <t>Silva</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Obras Civiles</t>
+          <t>Ingeniería Civil en Informática</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>HORMIGÓN ARMADO</t>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>21862624-6</t>
+          <t>21969886-0</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Montserrat </t>
+          <t>Gustavo</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>Urra</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Informática</t>
+          <t>Ingeniería Civil Industrial</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>21969886-0</t>
+          <t>20627445-k</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Gustavo</t>
+          <t>ariel</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Urra</t>
+          <t>aguiolar</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3129,105 +3129,105 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+          <t>HORMIGÓN ARMADO</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20627445-k</t>
+          <t>21653550-2</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ariel</t>
+          <t>Renato</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>aguiolar</t>
+          <t>Soto</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Ingeniería Civil Industrial</t>
+          <t>Ingeniería Civil en Informática</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>HORMIGÓN ARMADO</t>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>21653550-2</t>
+          <t>21051337-k</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Renato</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Soto</t>
+          <t>Olivares</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Informática</t>
+          <t>Ingeniería Civil en Minas</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+          <t>TALLER EN EMPRESA I</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>21051337-k</t>
+          <t>21458807-2</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Alonso</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Olivares</t>
+          <t>Labbe</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Minas</t>
+          <t>Ingeniería Civil en Informática</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>TALLER EN EMPRESA I</t>
+          <t>TALLER INTERFA. Y DIS. SOFTW</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>21458807-2</t>
+          <t>21476495-4</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Alonso</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Labbe</t>
+          <t>Palominos</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3244,17 +3244,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>21476495-4</t>
+          <t>26984779-4</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Ricardo</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Palominos</t>
+          <t>Chirinos</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3271,17 +3271,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>26984779-4</t>
+          <t>25986871-8</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ricardo</t>
+          <t>Sebastian</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Chirinos</t>
+          <t>Valbuena</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3298,17 +3298,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>25986871-8</t>
+          <t>25773948-1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Sebastian</t>
+          <t>alexander</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Valbuena</t>
+          <t>bracho</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3325,17 +3325,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>25773948-1</t>
+          <t>26006821-0</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>alexander</t>
+          <t>italo</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>bracho</t>
+          <t>duerto</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3352,17 +3352,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>26006821-0</t>
+          <t>20676681-6</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>italo</t>
+          <t>tomas</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>duerto</t>
+          <t>jorquera</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3379,17 +3379,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20676681-6</t>
+          <t>21511524-0</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>tomas</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>jorquera</t>
+          <t>Campos</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3406,17 +3406,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>21511524-0</t>
+          <t>21388469-7</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Nicolas</t>
+          <t>Francisco</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Campos</t>
+          <t>Noman</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3433,17 +3433,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>21388469-7</t>
+          <t>21604898-9</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Francisco</t>
+          <t>Benjamín</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Noman</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3460,17 +3460,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>21604898-9</t>
+          <t>21443570-5</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Benjamín</t>
+          <t>Renata</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Antequiera</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3487,17 +3487,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>21443570-5</t>
+          <t>21059103-6</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Renata</t>
+          <t>luciano</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Antequiera</t>
+          <t>alegria</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3514,17 +3514,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>21059103-6</t>
+          <t>21388203-1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>luciano</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>alegria</t>
+          <t>Herrera</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3541,17 +3541,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>21388203-1</t>
+          <t>21330609-K</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t xml:space="preserve">Daniel </t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Herrera</t>
+          <t>Pilquil</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3568,17 +3568,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>21330609-K</t>
+          <t>21503755-K</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daniel </t>
+          <t>VALENTINA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Pilquil</t>
+          <t>HERNANDEZ</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3595,17 +3595,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>21503755-K</t>
+          <t>21082243-7</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>VALENTINA</t>
+          <t>RENATO</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>HERNANDEZ</t>
+          <t>NUÑEZ</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3622,17 +3622,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>21082243-7</t>
+          <t>20631580-6</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>RENATO</t>
+          <t>Franco</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>NUÑEZ</t>
+          <t>Yañez</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3649,17 +3649,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20631580-6</t>
+          <t>20534567-1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Franco</t>
+          <t>yessenia</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Yañez</t>
+          <t>moreno</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3676,17 +3676,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20534567-1</t>
+          <t>21131605-5</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>yessenia</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>moreno</t>
+          <t>Cardenas</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3703,17 +3703,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>21131605-5</t>
+          <t>21514969-2</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Ignacio</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Cardenas</t>
+          <t>Neira</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3730,17 +3730,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>21514969-2</t>
+          <t>20961886-9</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Ignacio</t>
+          <t>Diego</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Neira</t>
+          <t>Jara</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3757,17 +3757,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20961886-9</t>
+          <t>15163524-5</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Diego</t>
+          <t>Ignacio</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Jara</t>
+          <t>Santamaria</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3784,17 +3784,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>15163524-5</t>
+          <t>21068499-9</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ignacio</t>
+          <t>Rodolfo</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Santamaria</t>
+          <t>Obreque</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3811,17 +3811,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>21068499-9</t>
+          <t>21123365-6</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Rodolfo</t>
+          <t>Pablo</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Obreque</t>
+          <t>Morales</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3838,17 +3838,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>21123365-6</t>
+          <t>21598156-8</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Ignacio</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Morales</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3865,17 +3865,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>21598156-8</t>
+          <t>20881871-6</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ignacio</t>
+          <t>Pablo</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Riveros</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3892,17 +3892,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20881871-6</t>
+          <t>21500608-5</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Benjamín</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Riveros</t>
+          <t>Iturra</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3919,17 +3919,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>21500608-5</t>
+          <t>25224132-9</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Benjamín</t>
+          <t>Oriana</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Iturra</t>
+          <t>Sandoval</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3946,17 +3946,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>25224132-9</t>
+          <t>21549325-3</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Oriana</t>
+          <t>Marcelo</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Sandoval</t>
+          <t>Muñoz</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3973,17 +3973,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>21549325-3</t>
+          <t>21086556-K</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Marcelo</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Muñoz</t>
+          <t>Perez</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4000,17 +4000,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>21086556-K</t>
+          <t>20908870-3</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Nicolas</t>
+          <t>Moises</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Perez</t>
+          <t>Vasquez Chavez</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4027,44 +4027,44 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20908870-3</t>
+          <t>21991471-7</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Moises</t>
+          <t>jose</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Vasquez Chavez</t>
+          <t>mellado</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Informática</t>
+          <t>Ingeniería Civil Industrial</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>TALLER INTERFA. Y DIS. SOFTW</t>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>21991471-7</t>
+          <t>22378860-2</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>jose</t>
+          <t>Fabrizio</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>mellado</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4081,17 +4081,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>22378860-2</t>
+          <t>22119736-4</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Fabrizio</t>
+          <t>javiera</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>galvez</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4108,17 +4108,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>22119736-4</t>
+          <t>22214195-8</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>javiera</t>
+          <t>franciska</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>galvez</t>
+          <t>zuñiga</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4135,17 +4135,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>22214195-8</t>
+          <t>22177648-8</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>franciska</t>
+          <t>aylin</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>zuñiga</t>
+          <t>mella</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4162,22 +4162,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>22177648-8</t>
+          <t>20447732-9</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>aylin</t>
+          <t>gonzalo</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>mella</t>
+          <t>sanchez</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Ingeniería Civil Industrial</t>
+          <t>Ingeniería Civil en Informática</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4189,22 +4189,22 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20447732-9</t>
+          <t>26909175-4</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>gonzalo</t>
+          <t>Sebastian</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>sanchez</t>
+          <t>Barazarte</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Informática</t>
+          <t>Ingeniería Civil en Obras Civiles</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4216,17 +4216,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>26909175-4</t>
+          <t>17617561-3</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Sebastian</t>
+          <t>jose</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Barazarte</t>
+          <t xml:space="preserve">Ortega </t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4243,17 +4243,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>17617561-3</t>
+          <t>22021435-4</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>jose</t>
+          <t>Francisco</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ortega </t>
+          <t>Diaz</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4270,22 +4270,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>22021435-4</t>
+          <t>17579474-3</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Francisco</t>
+          <t>Felipe</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Diaz</t>
+          <t>Flores</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Ingeniería Civil en Obras Civiles</t>
+          <t>Ingeniería Civil en Informática</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
